--- a/data/long_razon/P23_1-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_1-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>77,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>48,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,28; 97,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-47,29; 22,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,94; 167,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 53,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 100,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 22,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 41,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 25,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,27; 112,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 19,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 55,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 14,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>55,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-30,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>63,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,55; 120,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-46,04; -7,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,56; 120,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 27,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,03; 99,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 0,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>69,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 54,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 1,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,91; 101,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 13,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,02; 64,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 3,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_1-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_1-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +787,140 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_1-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_1-Estudios-long_razon.xlsx
@@ -659,17 +659,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.9032735094456971</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1175320565985941</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.4060105532174008</v>
+      </c>
       <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="n">
+        <v>0.92993225100662</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.2173787665391669</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.3380140299269527</v>
+      </c>
       <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="n">
+        <v>0.9169025753151507</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.1716092694097976</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.3618526798543383</v>
+      </c>
       <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -679,17 +697,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>0.2417843857654233</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.4468851626907028</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2217485769498307</v>
+      </c>
       <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="n">
+        <v>0.182954652619453</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.4218582953108992</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.09703579141917291</v>
+      </c>
       <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="n">
+        <v>0.3974208343250348</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.3700392651938717</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.01276696541142288</v>
+      </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -699,17 +735,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>2.222900554715341</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.2719141242526323</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.566124422278255</v>
+      </c>
       <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="n">
+        <v>2.073324331697935</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.061847217243924</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.965516657037385</v>
+      </c>
       <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="n">
+        <v>1.69868093957956</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.06492806898027192</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.8842468874438135</v>
+      </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -723,17 +777,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.2798763406951548</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.04324196163339915</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1603517314772461</v>
+      </c>
       <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="n">
+        <v>0.6978289936193197</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.04450087734833857</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.03322811168562519</v>
+      </c>
       <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="n">
+        <v>0.4683151123423203</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.04389588619578449</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.100696517986146</v>
+      </c>
       <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -743,17 +815,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.05549174177723352</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2689661984090484</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4021970048836322</v>
+      </c>
       <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="n">
+        <v>0.2758486814997265</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2099593405684252</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2664892034566975</v>
+      </c>
       <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="n">
+        <v>0.2032827780864948</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.190144902941079</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.2732131992436052</v>
+      </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -763,17 +853,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.7427344046057193</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2707975429446341</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1497104064206128</v>
+      </c>
       <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="n">
+        <v>1.2536055350565</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.1706671948428929</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.2519499837715766</v>
+      </c>
       <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="n">
+        <v>0.8089316528276953</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.1419811226058019</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.1123859975322716</v>
+      </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -787,17 +895,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.8402324254664899</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3044315451048794</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.004967001201610322</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>0.8403528694912406</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.008789632108697227</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.3880100979583259</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>0.8402935388092652</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.1563376834196383</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.2103003342370639</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +933,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>0.2914316077296655</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4662967953454775</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2593686466017538</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>0.3647106655543447</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.189671213282113</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.5354611812591241</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>0.4582769076475973</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2842498440426199</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.3635929661691009</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +971,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.530945828599041</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.08092085055866063</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.370743266620521</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>1.480193457252211</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.2522620172169055</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>-0.1735879507046787</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>1.314846383972428</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>-0.001766191370034653</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.04219514417321468</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,17 +1013,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.5543749106980593</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.1527865481976078</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.02481392297136649</v>
+      </c>
       <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="n">
+        <v>0.7906349702876893</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.07096469268620761</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.08488747180090557</v>
+      </c>
       <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="n">
+        <v>0.6677187099624827</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.1111316578352734</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.05670571732768861</v>
+      </c>
       <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -871,17 +1051,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>0.2880124411160324</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3008345020654247</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2154450636094938</v>
+      </c>
       <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="n">
+        <v>0.5005589945049459</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.176996301753629</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2181713563167629</v>
+      </c>
       <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="n">
+        <v>0.435798254573397</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.2047961779437572</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.1813124189494188</v>
+      </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -891,17 +1089,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.8929857005662956</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.007435645723859984</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2088882638202761</v>
+      </c>
       <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="n">
+        <v>1.133711807818302</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.063870014441172</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.09204569411196269</v>
+      </c>
       <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="n">
+        <v>0.9021295592745828</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>-0.01844332115887389</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.08445947414053537</v>
+      </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
